--- a/outputs/BOM_REVIEW.xlsx
+++ b/outputs/BOM_REVIEW.xlsx
@@ -2351,7 +2351,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -2450,12 +2450,12 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2200nF</t>
+          <t>2.2uF</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>225</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -2502,16 +2502,16 @@
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>CAP 2200nF 16V 10% X7R 0603 CER ROHS</t>
+          <t>CAP 2.2uF 16V 10% X7R 0603 CER ROHS</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>CAP2200nF16V10%X7R06</t>
+          <t>CAP2.2uF16V10%X7R060</t>
         </is>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>0.9655</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>475</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -2658,12 +2658,12 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1000pF</t>
+          <t>1nF</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -2710,16 +2710,16 @@
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>CAP 1000pF 50V 5% NP0 0402 CER ROHS</t>
+          <t>CAP 1nF 50V 5% NP0 0402 CER ROHS</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>CAP1000pF50V5%NP0040</t>
+          <t>CAP1nF50V5%NP00402CE</t>
         </is>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>0.8929</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
@@ -2762,12 +2762,12 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1000pF</t>
+          <t>1nF</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -2814,16 +2814,16 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>CAP 1000pF 50V 10% X7R 0402 CER ROHS</t>
+          <t>CAP 1nF 50V 10% X7R 0402 CER ROHS</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>CAP1000pF50V10%X7R04</t>
+          <t>CAP1nF50V10%X7R0402C</t>
         </is>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>0.8966</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -2970,12 +2970,12 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>6800pF</t>
+          <t>6.8nF</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>682</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -3022,16 +3022,16 @@
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>CAP 6800pF 50V 10% X7R 0402 CER ROHS</t>
+          <t>CAP 6.8nF 50V 10% X7R 0402 CER ROHS</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>CAP6800pF50V10%X7R04</t>
+          <t>CAP6.8nF50V10%X7R040</t>
         </is>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>0.9655</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
@@ -3074,12 +3074,12 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>8200pF</t>
+          <t>8.2nF</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>822</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -3126,16 +3126,16 @@
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>CAP 8200pF 50V 10% X7R 0402 CER ROHS</t>
+          <t>CAP 8.2nF 50V 10% X7R 0402 CER ROHS</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>CAP8200pF50V10%X7R04</t>
+          <t>CAP8.2nF50V10%X7R040</t>
         </is>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>0.9655</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>474</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -6092,12 +6092,12 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>47000nF</t>
+          <t>47uF</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>476</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -6144,16 +6144,16 @@
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>CAP 47000nF 16V 20% X5R 1210 CER ROHS</t>
+          <t>CAP 47uF 16V 20% X5R 1210 CER ROHS</t>
         </is>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>CAP47000nF16V20%X5R1</t>
+          <t>CAP47uF16V20%X5R1210</t>
         </is>
       </c>
       <c r="AD60" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE60" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>475</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -6300,12 +6300,12 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>10000pF</t>
+          <t>10nF</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -6352,16 +6352,16 @@
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>CAP 10000pF 50V 5% C0G 0603 CER ROHS</t>
+          <t>CAP 10nF 50V 5% C0G 0603 CER ROHS</t>
         </is>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>CAP10000pF50V5%C0G06</t>
+          <t>CAP10nF50V5%C0G0603C</t>
         </is>
       </c>
       <c r="AD62" t="n">
-        <v>1</v>
+        <v>0.8966</v>
       </c>
       <c r="AE62" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>222</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>431</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>120</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>470</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -7132,12 +7132,12 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2200pF</t>
+          <t>2.2nF</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>222</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -7184,16 +7184,16 @@
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>CAP 2200pF 50V 10% X7R 0603 CER ROHS</t>
+          <t>CAP 2.2nF 50V 10% X7R 0603 CER ROHS</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>CAP2200pF50V10%X7R06</t>
+          <t>CAP2.2nF50V10%X7R060</t>
         </is>
       </c>
       <c r="AD70" t="n">
-        <v>1</v>
+        <v>0.9655</v>
       </c>
       <c r="AE70" t="inlineStr">
         <is>
@@ -7236,12 +7236,12 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>10000pF</t>
+          <t>10nF</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -7288,16 +7288,16 @@
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>CAP 10000pF 50V 10% X7R 0402 CER ROHS</t>
+          <t>CAP 10nF 50V 10% X7R 0402 CER ROHS</t>
         </is>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>CAP10000pF50V10%X7R0</t>
+          <t>CAP10nF50V10%X7R0402</t>
         </is>
       </c>
       <c r="AD71" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE71" t="inlineStr">
         <is>
@@ -7340,12 +7340,12 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>10000pF</t>
+          <t>10nF</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -7392,16 +7392,16 @@
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr">
         <is>
-          <t>CAP 10000pF 100V 10% X7R 0603 CER ROHS</t>
+          <t>CAP 10nF 100V 10% X7R 0603 CER ROHS</t>
         </is>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>CAP10000pF100V10%X7R</t>
+          <t>CAP10nF100V10%X7R060</t>
         </is>
       </c>
       <c r="AD72" t="n">
-        <v>1</v>
+        <v>0.9032</v>
       </c>
       <c r="AE72" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -7761,7 +7761,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -7860,12 +7860,12 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>10000nF</t>
+          <t>10uF</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -7912,16 +7912,16 @@
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr">
         <is>
-          <t>CAP 10000nF 25V 10% X7R 1210 CER ROHS</t>
+          <t>CAP 10uF 25V 10% X7R 1210 CER ROHS</t>
         </is>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>CAP10000nF25V10%X7R1</t>
+          <t>CAP10uF25V10%X7R1210</t>
         </is>
       </c>
       <c r="AD77" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE77" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>226</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -8407,7 +8407,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>475</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -8610,12 +8610,12 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>10000nF</t>
+          <t>10uF</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -8662,16 +8662,16 @@
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr">
         <is>
-          <t>CAP 10000nF 16V 10% X7S 0805 CER ROHS</t>
+          <t>CAP 10uF 16V 10% X7S 0805 CER ROHS</t>
         </is>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>CAP10000nF16V10%X7S0</t>
+          <t>CAP10uF16V10%X7S0805</t>
         </is>
       </c>
       <c r="AD85" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE85" t="inlineStr">
         <is>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>9pF</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -11852,12 +11852,12 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>1000pF</t>
+          <t>1nF</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -11904,16 +11904,16 @@
       <c r="AA121" t="inlineStr"/>
       <c r="AB121" t="inlineStr">
         <is>
-          <t>CAP 1000pF 50V 5% NPO 0603 CER ROHS</t>
+          <t>CAP 1nF 50V 5% NPO 0603 CER ROHS</t>
         </is>
       </c>
       <c r="AC121" t="inlineStr">
         <is>
-          <t>CAP1000pF50V5%NPO060</t>
+          <t>CAP1nF50V5%NPO0603CE</t>
         </is>
       </c>
       <c r="AD121" t="n">
-        <v>1</v>
+        <v>0.8929</v>
       </c>
       <c r="AE121" t="inlineStr">
         <is>
@@ -11956,12 +11956,12 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>22000pF</t>
+          <t>22nF</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>223</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -12008,16 +12008,16 @@
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr">
         <is>
-          <t>CAP 22000pF 50V 10% X7R 0402 CER ROHS</t>
+          <t>CAP 22nF 50V 10% X7R 0402 CER ROHS</t>
         </is>
       </c>
       <c r="AC122" t="inlineStr">
         <is>
-          <t>CAP22000pF50V10%X7R0</t>
+          <t>CAP22nF50V10%X7R0402</t>
         </is>
       </c>
       <c r="AD122" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE122" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>331</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -12164,12 +12164,12 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>3300pF</t>
+          <t>3.3nF</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>332</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -12216,16 +12216,16 @@
       <c r="AA124" t="inlineStr"/>
       <c r="AB124" t="inlineStr">
         <is>
-          <t>CAP 3300pF 50V 10% X7R 0402 CER ROHS</t>
+          <t>CAP 3.3nF 50V 10% X7R 0402 CER ROHS</t>
         </is>
       </c>
       <c r="AC124" t="inlineStr">
         <is>
-          <t>CAP3300pF50V10%X7R04</t>
+          <t>CAP3.3nF50V10%X7R040</t>
         </is>
       </c>
       <c r="AD124" t="n">
-        <v>1</v>
+        <v>0.9655</v>
       </c>
       <c r="AE124" t="inlineStr">
         <is>
@@ -12267,12 +12267,12 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>47000pF</t>
+          <t>47nF</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>473</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -12319,16 +12319,16 @@
       <c r="AA125" t="inlineStr"/>
       <c r="AB125" t="inlineStr">
         <is>
-          <t>CAP 47000pF 50V 10% X7R 0402 CER ROHS</t>
+          <t>CAP 47nF 50V 10% X7R 0402 CER ROHS</t>
         </is>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
-          <t>CAP47000pF50V10%X7R0</t>
+          <t>CAP47nF50V10%X7R0402</t>
         </is>
       </c>
       <c r="AD125" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE125" t="inlineStr">
         <is>
@@ -12371,12 +12371,12 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>10000pF</t>
+          <t>10nF</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -12423,16 +12423,16 @@
       <c r="AA126" t="inlineStr"/>
       <c r="AB126" t="inlineStr">
         <is>
-          <t>CAP 10000pF 16V 10% X7R 0402 CER ROHS</t>
+          <t>CAP 10nF 16V 10% X7R 0402 CER ROHS</t>
         </is>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
-          <t>CAP10000pF16V10%X7R0</t>
+          <t>CAP10nF16V10%X7R0402</t>
         </is>
       </c>
       <c r="AD126" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE126" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>475</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -12584,7 +12584,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>474</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -12688,7 +12688,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>224</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -13536,7 +13536,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>474</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -13640,7 +13640,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -13744,7 +13744,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>225</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -13843,12 +13843,12 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>10000nF</t>
+          <t>10uF</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -13895,16 +13895,16 @@
       <c r="AA141" t="inlineStr"/>
       <c r="AB141" t="inlineStr">
         <is>
-          <t>CAP 10000nF 25V 10% X7R 1206 CER ROHS</t>
+          <t>CAP 10uF 25V 10% X7R 1206 CER ROHS</t>
         </is>
       </c>
       <c r="AC141" t="inlineStr">
         <is>
-          <t>CAP10000nF25V10%X7R1</t>
+          <t>CAP10uF25V10%X7R1206</t>
         </is>
       </c>
       <c r="AD141" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE141" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -14052,7 +14052,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>333</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -17631,7 +17631,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>225</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
@@ -17735,7 +17735,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>1pF</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
@@ -17834,12 +17834,12 @@
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>10000pF</t>
+          <t>10nF</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J185" t="inlineStr"/>
@@ -17886,16 +17886,16 @@
       <c r="AA185" t="inlineStr"/>
       <c r="AB185" t="inlineStr">
         <is>
-          <t>CAP 10000pF 50V 10% X7R 0603 CER ROHS</t>
+          <t>CAP 10nF 50V 10% X7R 0603 CER ROHS</t>
         </is>
       </c>
       <c r="AC185" t="inlineStr">
         <is>
-          <t>CAP10000pF50V10%X7R0</t>
+          <t>CAP10nF50V10%X7R0603</t>
         </is>
       </c>
       <c r="AD185" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE185" t="inlineStr">
         <is>
@@ -17938,12 +17938,12 @@
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>1200pF</t>
+          <t>1.2nF</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>122</t>
         </is>
       </c>
       <c r="J186" t="inlineStr"/>
@@ -17990,16 +17990,16 @@
       <c r="AA186" t="inlineStr"/>
       <c r="AB186" t="inlineStr">
         <is>
-          <t>CAP 1200pF 50V 10% X7R 0402 CER ROHS</t>
+          <t>CAP 1.2nF 50V 10% X7R 0402 CER ROHS</t>
         </is>
       </c>
       <c r="AC186" t="inlineStr">
         <is>
-          <t>CAP1200pF50V10%X7R04</t>
+          <t>CAP1.2nF50V10%X7R040</t>
         </is>
       </c>
       <c r="AD186" t="n">
-        <v>1</v>
+        <v>0.9655</v>
       </c>
       <c r="AE186" t="inlineStr">
         <is>
@@ -18042,12 +18042,12 @@
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>1000pF</t>
+          <t>1nF</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J187" t="inlineStr"/>
@@ -18094,16 +18094,16 @@
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="inlineStr">
         <is>
-          <t>CAP 1000pF 25V 10% X7R 0603 CER ROHS</t>
+          <t>CAP 1nF 25V 10% X7R 0603 CER ROHS</t>
         </is>
       </c>
       <c r="AC187" t="inlineStr">
         <is>
-          <t>CAP1000pF25V10%X7R06</t>
+          <t>CAP1nF25V10%X7R0603C</t>
         </is>
       </c>
       <c r="AD187" t="n">
-        <v>1</v>
+        <v>0.8966</v>
       </c>
       <c r="AE187" t="inlineStr">
         <is>
@@ -18146,12 +18146,12 @@
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>10000pF</t>
+          <t>10nF</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J188" t="inlineStr"/>
@@ -18198,16 +18198,16 @@
       <c r="AA188" t="inlineStr"/>
       <c r="AB188" t="inlineStr">
         <is>
-          <t>CAP 10000pF 25V 10% X7R 0603 CER ROHS</t>
+          <t>CAP 10nF 25V 10% X7R 0603 CER ROHS</t>
         </is>
       </c>
       <c r="AC188" t="inlineStr">
         <is>
-          <t>CAP10000pF25V10%X7R0</t>
+          <t>CAP10nF25V10%X7R0603</t>
         </is>
       </c>
       <c r="AD188" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE188" t="inlineStr">
         <is>
@@ -18250,12 +18250,12 @@
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>10000nF</t>
+          <t>10uF</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J189" t="inlineStr"/>
@@ -18302,16 +18302,16 @@
       <c r="AA189" t="inlineStr"/>
       <c r="AB189" t="inlineStr">
         <is>
-          <t>CAP 10000nF 50V 10% X7R 1210 CER ROHS</t>
+          <t>CAP 10uF 50V 10% X7R 1210 CER ROHS</t>
         </is>
       </c>
       <c r="AC189" t="inlineStr">
         <is>
-          <t>CAP10000nF50V10%X7R1</t>
+          <t>CAP10uF50V10%X7R1210</t>
         </is>
       </c>
       <c r="AD189" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE189" t="inlineStr">
         <is>
@@ -18634,12 +18634,12 @@
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>10000nF</t>
+          <t>10uF</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J193" t="inlineStr"/>
@@ -18686,16 +18686,16 @@
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="inlineStr">
         <is>
-          <t>CAP 10000nF 16V 10% X7R 1206 CER ROHS</t>
+          <t>CAP 10uF 16V 10% X7R 1206 CER ROHS</t>
         </is>
       </c>
       <c r="AC193" t="inlineStr">
         <is>
-          <t>CAP10000nF16V10%X7R1</t>
+          <t>CAP10uF16V10%X7R1206</t>
         </is>
       </c>
       <c r="AD193" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE193" t="inlineStr">
         <is>
@@ -18743,7 +18743,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>225</t>
         </is>
       </c>
       <c r="J194" t="inlineStr"/>
@@ -19387,7 +19387,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J201" t="inlineStr"/>
@@ -19491,7 +19491,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>224</t>
         </is>
       </c>
       <c r="J202" t="inlineStr"/>
@@ -19752,7 +19752,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>473</t>
         </is>
       </c>
       <c r="J205" t="inlineStr"/>
@@ -20687,12 +20687,12 @@
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>33000pF</t>
+          <t>33nF</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>333</t>
         </is>
       </c>
       <c r="J215" t="inlineStr"/>
@@ -20739,16 +20739,16 @@
       <c r="AA215" t="inlineStr"/>
       <c r="AB215" t="inlineStr">
         <is>
-          <t>CAP 33000pF 50V 10% X7R 0402 CER ROHS</t>
+          <t>CAP 33nF 50V 10% X7R 0402 CER ROHS</t>
         </is>
       </c>
       <c r="AC215" t="inlineStr">
         <is>
-          <t>CAP33000pF50V10%X7R0</t>
+          <t>CAP33nF50V10%X7R0402</t>
         </is>
       </c>
       <c r="AD215" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE215" t="inlineStr">
         <is>
@@ -20796,7 +20796,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>220</t>
         </is>
       </c>
       <c r="J216" t="inlineStr"/>
@@ -20900,7 +20900,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J217" t="inlineStr"/>
@@ -20999,12 +20999,12 @@
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>10000pF</t>
+          <t>10nF</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J218" t="inlineStr"/>
@@ -21051,16 +21051,16 @@
       <c r="AA218" t="inlineStr"/>
       <c r="AB218" t="inlineStr">
         <is>
-          <t>CAP 10000pF 25V 10% X7R 0402 CER ROHS</t>
+          <t>CAP 10nF 25V 10% X7R 0402 CER ROHS</t>
         </is>
       </c>
       <c r="AC218" t="inlineStr">
         <is>
-          <t>CAP10000pF25V10%X7R0</t>
+          <t>CAP10nF25V10%X7R0402</t>
         </is>
       </c>
       <c r="AD218" t="n">
-        <v>0.9677</v>
+        <v>0.871</v>
       </c>
       <c r="AE218" t="inlineStr">
         <is>
@@ -22589,12 +22589,12 @@
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr">
         <is>
-          <t>1000pF</t>
+          <t>1nF</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J236" t="inlineStr"/>
@@ -22641,16 +22641,16 @@
       <c r="AA236" t="inlineStr"/>
       <c r="AB236" t="inlineStr">
         <is>
-          <t>CAP 1000pF 50V 10% X7R 0603 CER ROHS</t>
+          <t>CAP 1nF 50V 10% X7R 0603 CER ROHS</t>
         </is>
       </c>
       <c r="AC236" t="inlineStr">
         <is>
-          <t>CAP1000pF50V10%X7R06</t>
+          <t>CAP1nF50V10%X7R0603C</t>
         </is>
       </c>
       <c r="AD236" t="n">
-        <v>1</v>
+        <v>0.8966</v>
       </c>
       <c r="AE236" t="inlineStr">
         <is>
@@ -22693,12 +22693,12 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>12000pF</t>
+          <t>12nF</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>123</t>
         </is>
       </c>
       <c r="J237" t="inlineStr"/>
@@ -22745,16 +22745,16 @@
       <c r="AA237" t="inlineStr"/>
       <c r="AB237" t="inlineStr">
         <is>
-          <t>CAP 12000pF 50V 10% X7R 0603 CER ROHS</t>
+          <t>CAP 12nF 50V 10% X7R 0603 CER ROHS</t>
         </is>
       </c>
       <c r="AC237" t="inlineStr">
         <is>
-          <t>CAP12000pF50V10%X7R0</t>
+          <t>CAP12nF50V10%X7R0603</t>
         </is>
       </c>
       <c r="AD237" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE237" t="inlineStr">
         <is>
@@ -22798,12 +22798,12 @@
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>27000pF</t>
+          <t>27nF</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>273</t>
         </is>
       </c>
       <c r="J238" t="inlineStr"/>
@@ -22850,16 +22850,16 @@
       <c r="AA238" t="inlineStr"/>
       <c r="AB238" t="inlineStr">
         <is>
-          <t>CAP 27000pF 50V 10% X7R 0402 CER ROHS</t>
+          <t>CAP 27nF 50V 10% X7R 0402 CER ROHS</t>
         </is>
       </c>
       <c r="AC238" t="inlineStr">
         <is>
-          <t>CAP27000pF50V10%X7R0</t>
+          <t>CAP27nF50V10%X7R0402</t>
         </is>
       </c>
       <c r="AD238" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE238" t="inlineStr">
         <is>
@@ -23812,7 +23812,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J249" t="inlineStr"/>
@@ -24004,7 +24004,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>225</t>
         </is>
       </c>
       <c r="J251" t="inlineStr"/>
@@ -24747,12 +24747,12 @@
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr">
         <is>
-          <t>1000pF</t>
+          <t>1nF</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J259" t="inlineStr"/>
@@ -24799,16 +24799,16 @@
       <c r="AA259" t="inlineStr"/>
       <c r="AB259" t="inlineStr">
         <is>
-          <t>CAP 1000pF 100V 10% X7R 0603 CER ROHS</t>
+          <t>CAP 1nF 100V 10% X7R 0603 CER ROHS</t>
         </is>
       </c>
       <c r="AC259" t="inlineStr">
         <is>
-          <t>CAP1000pF100V10%X7R0</t>
+          <t>CAP1nF100V10%X7R0603</t>
         </is>
       </c>
       <c r="AD259" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE259" t="inlineStr">
         <is>
@@ -24851,12 +24851,12 @@
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="inlineStr">
         <is>
-          <t>10000nF</t>
+          <t>10uF</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J260" t="inlineStr"/>
@@ -24903,16 +24903,16 @@
       <c r="AA260" t="inlineStr"/>
       <c r="AB260" t="inlineStr">
         <is>
-          <t>CAP 10000nF 25V 10% X5R 0805 CER ROHS</t>
+          <t>CAP 10uF 25V 10% X5R 0805 CER ROHS</t>
         </is>
       </c>
       <c r="AC260" t="inlineStr">
         <is>
-          <t>CAP10000nF25V10%X5R0</t>
+          <t>CAP10uF25V10%X5R0805</t>
         </is>
       </c>
       <c r="AD260" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE260" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J264" t="inlineStr"/>
@@ -26530,7 +26530,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>1.8pF</t>
         </is>
       </c>
       <c r="J278" t="inlineStr"/>
@@ -26586,7 +26586,7 @@
         </is>
       </c>
       <c r="AD278" t="n">
-        <v>1</v>
+        <v>1.0741</v>
       </c>
       <c r="AE278" t="inlineStr">
         <is>
@@ -26634,7 +26634,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>224</t>
         </is>
       </c>
       <c r="J279" t="inlineStr"/>
@@ -26733,12 +26733,12 @@
       <c r="G280" t="inlineStr"/>
       <c r="H280" t="inlineStr">
         <is>
-          <t>47000nF</t>
+          <t>47uF</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>476</t>
         </is>
       </c>
       <c r="J280" t="inlineStr"/>
@@ -26785,16 +26785,16 @@
       <c r="AA280" t="inlineStr"/>
       <c r="AB280" t="inlineStr">
         <is>
-          <t>CAP 47000nF 10V 10% X7R 1210 CER ROHS</t>
+          <t>CAP 47uF 10V 10% X7R 1210 CER ROHS</t>
         </is>
       </c>
       <c r="AC280" t="inlineStr">
         <is>
-          <t>CAP47000nF10V10%X7R1</t>
+          <t>CAP47uF10V10%X7R1210</t>
         </is>
       </c>
       <c r="AD280" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE280" t="inlineStr">
         <is>
@@ -26842,7 +26842,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>475</t>
         </is>
       </c>
       <c r="J281" t="inlineStr"/>
@@ -27283,7 +27283,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>226</t>
         </is>
       </c>
       <c r="J286" t="inlineStr"/>
@@ -27383,7 +27383,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>472</t>
         </is>
       </c>
       <c r="J287" t="inlineStr"/>
@@ -27571,7 +27571,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>7pF</t>
         </is>
       </c>
       <c r="J289" t="inlineStr"/>
@@ -27912,12 +27912,12 @@
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr">
         <is>
-          <t>10000pF</t>
+          <t>10nF</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J293" t="inlineStr"/>
@@ -27964,16 +27964,16 @@
       <c r="AA293" t="inlineStr"/>
       <c r="AB293" t="inlineStr">
         <is>
-          <t>CAP 10000pF 16V 10% X7R 0603 CER ROHS</t>
+          <t>CAP 10nF 16V 10% X7R 0603 CER ROHS</t>
         </is>
       </c>
       <c r="AC293" t="inlineStr">
         <is>
-          <t>CAP10000pF16V10%X7R0</t>
+          <t>CAP10nF16V10%X7R0603</t>
         </is>
       </c>
       <c r="AD293" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE293" t="inlineStr">
         <is>
@@ -28122,7 +28122,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J295" t="inlineStr"/>
@@ -29314,7 +29314,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>4.7pF</t>
         </is>
       </c>
       <c r="J308" t="inlineStr"/>
@@ -29370,7 +29370,7 @@
         </is>
       </c>
       <c r="AD308" t="n">
-        <v>1</v>
+        <v>1.0741</v>
       </c>
       <c r="AE308" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J310" t="inlineStr"/>
@@ -30141,7 +30141,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J317" t="inlineStr"/>
@@ -30245,7 +30245,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J318" t="inlineStr"/>
@@ -31538,7 +31538,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J333" t="inlineStr"/>
@@ -32784,7 +32784,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J346" t="inlineStr"/>
@@ -34103,7 +34103,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J361" t="inlineStr"/>
@@ -34589,7 +34589,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J366" t="inlineStr"/>
@@ -34689,7 +34689,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>153</t>
         </is>
       </c>
       <c r="J367" t="inlineStr"/>
@@ -35595,7 +35595,7 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>271</t>
         </is>
       </c>
       <c r="J377" t="inlineStr"/>
@@ -35694,12 +35694,12 @@
       <c r="G378" t="inlineStr"/>
       <c r="H378" t="inlineStr">
         <is>
-          <t>1000pF</t>
+          <t>1nF</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J378" t="inlineStr"/>
@@ -35746,16 +35746,16 @@
       <c r="AA378" t="inlineStr"/>
       <c r="AB378" t="inlineStr">
         <is>
-          <t>CAP 1000pF 1000V 10% X7R 1206 CER ROHS</t>
+          <t>CAP 1nF 1000V 10% X7R 1206 CER ROHS</t>
         </is>
       </c>
       <c r="AC378" t="inlineStr">
         <is>
-          <t>CAP1000pF1000V10%X7R</t>
+          <t>CAP1nF1000V10%X7R120</t>
         </is>
       </c>
       <c r="AD378" t="n">
-        <v>1</v>
+        <v>0.9032</v>
       </c>
       <c r="AE378" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J395" t="inlineStr"/>
@@ -37463,7 +37463,7 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>220</t>
         </is>
       </c>
       <c r="J396" t="inlineStr"/>
@@ -37571,7 +37571,7 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>475</t>
         </is>
       </c>
       <c r="J397" t="inlineStr"/>
@@ -37947,7 +37947,7 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J401" t="inlineStr"/>
@@ -38045,7 +38045,7 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>224</t>
         </is>
       </c>
       <c r="J402" t="inlineStr"/>
@@ -40219,7 +40219,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>225</t>
         </is>
       </c>
       <c r="J426" t="inlineStr"/>
@@ -40323,7 +40323,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>750</t>
         </is>
       </c>
       <c r="J427" t="inlineStr"/>
@@ -40427,7 +40427,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>471</t>
         </is>
       </c>
       <c r="J428" t="inlineStr"/>
@@ -40531,7 +40531,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>391</t>
         </is>
       </c>
       <c r="J429" t="inlineStr"/>
@@ -40630,12 +40630,12 @@
       <c r="G430" t="inlineStr"/>
       <c r="H430" t="inlineStr">
         <is>
-          <t>39000pF</t>
+          <t>39nF</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>393</t>
         </is>
       </c>
       <c r="J430" t="inlineStr"/>
@@ -40682,16 +40682,16 @@
       <c r="AA430" t="inlineStr"/>
       <c r="AB430" t="inlineStr">
         <is>
-          <t>CAP 39000pF 50V 10% X7R 0402 CER ROHS</t>
+          <t>CAP 39nF 50V 10% X7R 0402 CER ROHS</t>
         </is>
       </c>
       <c r="AC430" t="inlineStr">
         <is>
-          <t>CAP39000pF50V10%X7R0</t>
+          <t>CAP39nF50V10%X7R0402</t>
         </is>
       </c>
       <c r="AD430" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AE430" t="inlineStr">
         <is>
@@ -43044,7 +43044,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>474</t>
         </is>
       </c>
       <c r="J456" t="inlineStr"/>
@@ -43154,7 +43154,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>223</t>
         </is>
       </c>
       <c r="J457" t="inlineStr"/>
@@ -43264,7 +43264,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>333</t>
         </is>
       </c>
       <c r="J458" t="inlineStr"/>
@@ -43374,7 +43374,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>473</t>
         </is>
       </c>
       <c r="J459" t="inlineStr"/>
@@ -43484,7 +43484,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>682</t>
         </is>
       </c>
       <c r="J460" t="inlineStr"/>
@@ -43594,7 +43594,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J461" t="inlineStr"/>
@@ -43688,7 +43688,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>475</t>
         </is>
       </c>
       <c r="J462" t="inlineStr"/>
@@ -43780,7 +43780,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J463" t="inlineStr"/>
@@ -45005,7 +45005,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>200</t>
         </is>
       </c>
       <c r="J477" t="inlineStr"/>
@@ -45109,7 +45109,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>681</t>
         </is>
       </c>
       <c r="J478" t="inlineStr"/>
@@ -45208,12 +45208,12 @@
       <c r="G479" t="inlineStr"/>
       <c r="H479" t="inlineStr">
         <is>
-          <t>1500pF</t>
+          <t>1.5nF</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>152</t>
         </is>
       </c>
       <c r="J479" t="inlineStr"/>
@@ -45260,16 +45260,16 @@
       <c r="AA479" t="inlineStr"/>
       <c r="AB479" t="inlineStr">
         <is>
-          <t>CAP 1500pF 50V 10% X7R 0402 CER ROHS</t>
+          <t>CAP 1.5nF 50V 10% X7R 0402 CER ROHS</t>
         </is>
       </c>
       <c r="AC479" t="inlineStr">
         <is>
-          <t>CAP1500pF50V10%X7R04</t>
+          <t>CAP1.5nF50V10%X7R040</t>
         </is>
       </c>
       <c r="AD479" t="n">
-        <v>1</v>
+        <v>0.9655</v>
       </c>
       <c r="AE479" t="inlineStr">
         <is>
@@ -45317,7 +45317,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J480" t="inlineStr"/>
@@ -45894,7 +45894,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J486" t="inlineStr"/>
@@ -45998,7 +45998,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>225</t>
         </is>
       </c>
       <c r="J487" t="inlineStr"/>
@@ -46098,7 +46098,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J488" t="inlineStr"/>
@@ -46198,7 +46198,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J489" t="inlineStr"/>
@@ -46298,7 +46298,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>685</t>
         </is>
       </c>
       <c r="J490" t="inlineStr"/>
@@ -47068,7 +47068,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>225</t>
         </is>
       </c>
       <c r="J498" t="inlineStr"/>
@@ -47174,7 +47174,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J499" t="inlineStr"/>
@@ -47991,7 +47991,7 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>2pF</t>
         </is>
       </c>
       <c r="J508" t="inlineStr"/>
@@ -48095,7 +48095,7 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>471</t>
         </is>
       </c>
       <c r="J509" t="inlineStr"/>
@@ -48194,12 +48194,12 @@
       <c r="G510" t="inlineStr"/>
       <c r="H510" t="inlineStr">
         <is>
-          <t>10000nF</t>
+          <t>10uF</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J510" t="inlineStr"/>
@@ -48238,16 +48238,16 @@
       <c r="AA510" t="inlineStr"/>
       <c r="AB510" t="inlineStr">
         <is>
-          <t>CAP 10000nF 50V 20% 6.3x6.6x6.6mm ROHS</t>
+          <t>CAP 10uF 50V 20% 6.3x6.6x6.6mm ROHS</t>
         </is>
       </c>
       <c r="AC510" t="inlineStr">
         <is>
-          <t>CAP10000nF50V20%6.3x</t>
+          <t>CAP10uF50V20%6.3x6.6</t>
         </is>
       </c>
       <c r="AD510" t="n">
-        <v>0.9429</v>
+        <v>0.8571</v>
       </c>
       <c r="AE510" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J511" t="inlineStr"/>
@@ -49116,7 +49116,7 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>471</t>
         </is>
       </c>
       <c r="J520" t="inlineStr"/>
@@ -50146,7 +50146,7 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J531" t="inlineStr"/>
@@ -50724,7 +50724,7 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>332</t>
         </is>
       </c>
       <c r="J537" t="inlineStr"/>
@@ -50832,7 +50832,7 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>472</t>
         </is>
       </c>
       <c r="J538" t="inlineStr"/>
@@ -52701,7 +52701,7 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>226</t>
         </is>
       </c>
       <c r="J558" t="inlineStr"/>
@@ -52800,12 +52800,12 @@
       <c r="G559" t="inlineStr"/>
       <c r="H559" t="inlineStr">
         <is>
-          <t>0.22uF</t>
+          <t>220nF</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>224</t>
         </is>
       </c>
       <c r="J559" t="inlineStr"/>
@@ -52852,16 +52852,16 @@
       <c r="AA559" t="inlineStr"/>
       <c r="AB559" t="inlineStr">
         <is>
-          <t>CAP 0.22uF 50V 80% Y5V 0603 CER ROHS</t>
+          <t>CAP 220nF 50V 80% Y5V 0603 CER ROHS</t>
         </is>
       </c>
       <c r="AC559" t="inlineStr">
         <is>
-          <t>CAP0.22uF50V80%Y5V06</t>
+          <t>CAP220nF50V80%Y5V060</t>
         </is>
       </c>
       <c r="AD559" t="n">
-        <v>0.8529</v>
+        <v>0.8235</v>
       </c>
       <c r="AE559" t="inlineStr">
         <is>
@@ -53187,7 +53187,7 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>180</t>
         </is>
       </c>
       <c r="J563" t="inlineStr"/>
@@ -53349,7 +53349,7 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>120</t>
         </is>
       </c>
       <c r="J565" t="inlineStr"/>
@@ -54151,7 +54151,7 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J574" t="inlineStr"/>
@@ -54495,12 +54495,12 @@
       <c r="G578" t="inlineStr"/>
       <c r="H578" t="inlineStr">
         <is>
-          <t>1500pF</t>
+          <t>1.5nF</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>152</t>
         </is>
       </c>
       <c r="J578" t="inlineStr"/>
@@ -54547,16 +54547,16 @@
       <c r="AA578" t="inlineStr"/>
       <c r="AB578" t="inlineStr">
         <is>
-          <t>CAP 1500pF 100V 10% X7R 0603 CER ROHS</t>
+          <t>CAP 1.5nF 100V 10% X7R 0603 CER ROHS</t>
         </is>
       </c>
       <c r="AC578" t="inlineStr">
         <is>
-          <t>CAP1500pF100V10%X7R0</t>
+          <t>CAP1.5nF100V10%X7R06</t>
         </is>
       </c>
       <c r="AD578" t="n">
-        <v>1</v>
+        <v>0.9667</v>
       </c>
       <c r="AE578" t="inlineStr">
         <is>
@@ -55702,7 +55702,7 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>224</t>
         </is>
       </c>
       <c r="J591" t="inlineStr"/>
@@ -55802,7 +55802,7 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>474</t>
         </is>
       </c>
       <c r="J592" t="inlineStr"/>
@@ -55908,7 +55908,7 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>180</t>
         </is>
       </c>
       <c r="J593" t="inlineStr"/>
@@ -56012,7 +56012,7 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>226</t>
         </is>
       </c>
       <c r="J594" t="inlineStr"/>
@@ -56110,7 +56110,7 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>475</t>
         </is>
       </c>
       <c r="J595" t="inlineStr"/>
@@ -56480,7 +56480,7 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>180</t>
         </is>
       </c>
       <c r="J599" t="inlineStr"/>
@@ -57540,7 +57540,7 @@
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J610" t="inlineStr"/>
@@ -57644,7 +57644,7 @@
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J611" t="inlineStr"/>
@@ -57750,7 +57750,7 @@
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>153</t>
         </is>
       </c>
       <c r="J612" t="inlineStr"/>
@@ -57854,7 +57854,7 @@
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>561</t>
         </is>
       </c>
       <c r="J613" t="inlineStr"/>
@@ -57960,7 +57960,7 @@
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>223</t>
         </is>
       </c>
       <c r="J614" t="inlineStr"/>
@@ -60685,7 +60685,7 @@
       </c>
       <c r="I644" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>222</t>
         </is>
       </c>
       <c r="J644" t="inlineStr"/>
@@ -60789,7 +60789,7 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J645" t="inlineStr"/>
@@ -60895,7 +60895,7 @@
       </c>
       <c r="I646" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>474</t>
         </is>
       </c>
       <c r="J646" t="inlineStr"/>
@@ -60994,12 +60994,12 @@
       <c r="G647" t="inlineStr"/>
       <c r="H647" t="inlineStr">
         <is>
-          <t>0.22uF</t>
+          <t>220nF</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>224</t>
         </is>
       </c>
       <c r="J647" t="inlineStr"/>
@@ -61046,16 +61046,16 @@
       <c r="AA647" t="inlineStr"/>
       <c r="AB647" t="inlineStr">
         <is>
-          <t>CAP 0.22uF 25V 10% X7R 0603 CER ROHS</t>
+          <t>CAP 220nF 25V 10% X7R 0603 CER ROHS</t>
         </is>
       </c>
       <c r="AC647" t="inlineStr">
         <is>
-          <t>CAP0.22uF25V10%X7R06</t>
+          <t>CAP220nF25V10%X7R060</t>
         </is>
       </c>
       <c r="AD647" t="n">
-        <v>1</v>
+        <v>0.9655</v>
       </c>
       <c r="AE647" t="inlineStr">
         <is>
@@ -61701,7 +61701,7 @@
       </c>
       <c r="I655" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>686</t>
         </is>
       </c>
       <c r="J655" t="inlineStr"/>
@@ -61793,7 +61793,7 @@
       </c>
       <c r="I656" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>337</t>
         </is>
       </c>
       <c r="J656" t="inlineStr"/>
@@ -61885,7 +61885,7 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J657" t="inlineStr"/>
@@ -61977,7 +61977,7 @@
       </c>
       <c r="I658" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>227</t>
         </is>
       </c>
       <c r="J658" t="inlineStr"/>
@@ -62073,7 +62073,7 @@
       </c>
       <c r="I659" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J659" t="inlineStr"/>
@@ -62169,7 +62169,7 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J660" t="inlineStr"/>
@@ -62265,7 +62265,7 @@
       </c>
       <c r="I661" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>474</t>
         </is>
       </c>
       <c r="J661" t="inlineStr"/>
@@ -62357,7 +62357,7 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J662" t="inlineStr"/>
@@ -64975,7 +64975,7 @@
       </c>
       <c r="I692" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J692" t="inlineStr"/>
@@ -65075,7 +65075,7 @@
       </c>
       <c r="I693" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>225</t>
         </is>
       </c>
       <c r="J693" t="inlineStr"/>
@@ -65785,7 +65785,7 @@
       </c>
       <c r="I701" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>225</t>
         </is>
       </c>
       <c r="J701" t="inlineStr"/>
@@ -66993,7 +66993,7 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>470</t>
         </is>
       </c>
       <c r="J715" t="inlineStr"/>
@@ -67105,7 +67105,7 @@
       </c>
       <c r="I716" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>225</t>
         </is>
       </c>
       <c r="J716" t="inlineStr"/>

--- a/outputs/BOM_REVIEW.xlsx
+++ b/outputs/BOM_REVIEW.xlsx
@@ -686,7 +686,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>OT1R03~5.5V500mA8TDF</t>
+          <t>OT1R03~5.5V500mA</t>
         </is>
       </c>
       <c r="AE2" t="n">
@@ -761,11 +761,7 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>19.2x16.7x18.6mm</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
           <t>19.2x16.7x18.6mm</t>
@@ -789,11 +785,11 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>OT0~1000V2mA19.2x16.</t>
+          <t>OT0~1000V2mA</t>
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>0.8727272727272727</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -864,11 +860,7 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>13x5.7x6.1mm</t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
           <t>13x5.7x6.1mm</t>
@@ -896,11 +888,11 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>OT30V0.3A13x5.7x6.1m</t>
+          <t>OT30V0.3A</t>
         </is>
       </c>
       <c r="AE4" t="n">
-        <v>1.133333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
@@ -981,11 +973,7 @@
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>7x5x1.4mm</t>
-        </is>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
           <t>7x5x1.4mm</t>
@@ -1013,11 +1001,11 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>OT1503.3V7x5x1.4mm</t>
+          <t>OT1503.3V12MHz</t>
         </is>
       </c>
       <c r="AE5" t="n">
-        <v>1.482758620689655</v>
+        <v>1.172413793103448</v>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
@@ -1116,7 +1104,7 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>OT65V100mASOT-23</t>
+          <t>OT65V100mASOT-23NPN</t>
         </is>
       </c>
       <c r="AE6" t="n">
@@ -1223,7 +1211,7 @@
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>OT24V10A2.5x5.5mm10x</t>
+          <t>OT24V10A</t>
         </is>
       </c>
       <c r="AE7" t="n">
@@ -1304,11 +1292,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>25.4x25.4mm</t>
-        </is>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
           <t>25.4x25.4mm</t>
@@ -1332,11 +1316,11 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>OT12V5V3A15W25.4x25.</t>
+          <t>OT12V5V3A15W</t>
         </is>
       </c>
       <c r="AE8" t="n">
-        <v>0.7169811320754716</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
@@ -1447,7 +1431,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>OT2R03~5.5V500mA10TD</t>
+          <t>OT2R03~5.5V500mA</t>
         </is>
       </c>
       <c r="AE9" t="n">
@@ -1626,7 +1610,7 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>OT</t>
+          <t>OTsteel</t>
         </is>
       </c>
       <c r="AE11" t="n">
@@ -1729,7 +1713,7 @@
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>OT100V5.25ASOT89</t>
+          <t>OT100V5.25ASOT89NPN</t>
         </is>
       </c>
       <c r="AE12" t="n">
@@ -1909,11 +1893,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>28x30.5x27mm</t>
-        </is>
-      </c>
+      <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
           <t>28x30.5x27mm</t>
@@ -1937,11 +1917,11 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>OT10R210uH10%28x30.5</t>
+          <t>OT10R210uH10%</t>
         </is>
       </c>
       <c r="AE14" t="n">
-        <v>1.102564102564103</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
@@ -2018,11 +1998,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>35x35.5x35.5mm</t>
-        </is>
-      </c>
+      <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
           <t>35x35.5x35.5mm</t>
@@ -2046,11 +2022,11 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>OT10R450uH10%35x35.5</t>
+          <t>OT10R450uH10%</t>
         </is>
       </c>
       <c r="AE15" t="n">
-        <v>1.146341463414634</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
